--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang4/2.XuLyBH/XLBH2304_HayHue.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang4/2.XuLyBH/XLBH2304_HayHue.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="43" r:id="rId1"/>
@@ -691,6 +691,30 @@
     <xf numFmtId="4" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -706,32 +730,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1042,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1075,43 +1075,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1156,58 +1156,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="86"/>
-      <c r="L4" s="83" t="s">
+      <c r="K4" s="78"/>
+      <c r="L4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="83" t="s">
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -1238,17 +1238,17 @@
       <c r="K5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1287,22 +1287,22 @@
       <c r="M6" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="67" t="s">
+      <c r="N6" s="67"/>
+      <c r="O6" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="O6" s="67" t="s">
+      <c r="P6" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="P6" s="66" t="s">
+      <c r="Q6" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="67" t="s">
+      <c r="R6" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="62"/>
       <c r="S6" s="69"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1333,7 +1333,7 @@
       <c r="R7" s="62"/>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1362,7 +1362,7 @@
       <c r="R8" s="62"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1391,7 +1391,7 @@
       <c r="R9" s="62"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1420,7 +1420,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1449,7 +1449,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1478,7 +1478,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1509,7 +1509,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1538,7 +1538,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1567,7 +1567,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1596,7 +1596,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2824,6 +2824,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2835,13 +2842,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2852,7 +2852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
@@ -2885,43 +2885,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -2966,58 +2966,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -3042,23 +3042,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="86"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="78"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="85"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3084,7 +3084,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3115,7 +3115,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3144,7 +3144,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3173,7 +3173,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3202,7 +3202,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3231,7 +3231,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3260,7 +3260,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3291,7 +3291,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3320,7 +3320,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3349,7 +3349,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3378,7 +3378,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4609,13 +4609,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4627,6 +4620,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
